--- a/Danhmuc_checklist_images.xlsx
+++ b/Danhmuc_checklist_images.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\Incosys.itn\Create-images-Openstack\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF62C582-6885-49B5-B066-E1190368EEC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAE022C0-68D4-4010-8C59-76AC4DB2F1F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-3180" windowWidth="29040" windowHeight="15720" xr2:uid="{4D68EB95-6EB6-461B-9891-DC42680D70B6}"/>
   </bookViews>
@@ -40,7 +40,7 @@
     <author>tc={7A75C3DE-EB23-42A1-B86C-863A3A61D89B}</author>
   </authors>
   <commentList>
-    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{7A75C3DE-EB23-42A1-B86C-863A3A61D89B}">
+    <comment ref="AI1" authorId="0" shapeId="0" xr:uid="{7A75C3DE-EB23-42A1-B86C-863A3A61D89B}">
       <text>
         <t>[Threaded comment]
 Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="79">
   <si>
     <t>STT</t>
   </si>
@@ -296,6 +296,12 @@
   </si>
   <si>
     <t>Nội dung Cloud-init</t>
+  </si>
+  <si>
+    <t>Cập nhật OS</t>
+  </si>
+  <si>
+    <t>Ứng dụng cơ bản</t>
   </si>
 </sst>
 </file>
@@ -817,7 +823,7 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="AG1" dT="2023-01-09T01:50:42.67" personId="{3BE37B97-68CC-4556-B362-C393A145C18E}" id="{7A75C3DE-EB23-42A1-B86C-863A3A61D89B}">
+  <threadedComment ref="AI1" dT="2023-01-09T01:50:42.67" personId="{3BE37B97-68CC-4556-B362-C393A145C18E}" id="{7A75C3DE-EB23-42A1-B86C-863A3A61D89B}">
     <text>Các thông tin như: tài khoản hard code, các đặc thù về việc mở rộng, gói có sẵn, ứng dụng sử dụng, cấu hình tối thiểu,...</text>
   </threadedComment>
 </ThreadedComments>
@@ -825,11 +831,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14CC84A5-F60A-4E63-95BD-022A519AA928}">
-  <dimension ref="A1:AG33"/>
+  <dimension ref="A1:AI33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="V1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AF12" sqref="AF12"/>
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U19" sqref="U19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -853,11 +859,11 @@
     <col min="26" max="27" width="25.7109375" style="7" customWidth="1"/>
     <col min="28" max="28" width="33.28515625" style="7" customWidth="1"/>
     <col min="29" max="29" width="33.28515625" style="23" customWidth="1"/>
-    <col min="30" max="33" width="33.28515625" style="7" customWidth="1"/>
-    <col min="34" max="16384" width="9.140625" style="7"/>
+    <col min="30" max="35" width="33.28515625" style="7" customWidth="1"/>
+    <col min="36" max="16384" width="9.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="2" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:35" s="2" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -949,16 +955,22 @@
         <v>64</v>
       </c>
       <c r="AE1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="AG1" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AI1" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="2" spans="1:33" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:35" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
       <c r="C2" s="26"/>
@@ -990,10 +1002,12 @@
       <c r="AC2" s="28"/>
       <c r="AD2" s="3"/>
       <c r="AE2" s="3"/>
-      <c r="AF2" s="26"/>
-      <c r="AG2" s="26"/>
-    </row>
-    <row r="3" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AF2" s="3"/>
+      <c r="AG2" s="3"/>
+      <c r="AH2" s="26"/>
+      <c r="AI2" s="26"/>
+    </row>
+    <row r="3" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1027,8 +1041,10 @@
       <c r="AE3" s="3"/>
       <c r="AF3" s="3"/>
       <c r="AG3" s="3"/>
-    </row>
-    <row r="4" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+    </row>
+    <row r="4" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -1062,8 +1078,10 @@
       <c r="AE4" s="3"/>
       <c r="AF4" s="3"/>
       <c r="AG4" s="3"/>
-    </row>
-    <row r="5" spans="1:33" s="6" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+    </row>
+    <row r="5" spans="1:35" s="6" customFormat="1" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -1097,8 +1115,10 @@
       <c r="AE5" s="3"/>
       <c r="AF5" s="3"/>
       <c r="AG5" s="3"/>
-    </row>
-    <row r="6" spans="1:33" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AH5" s="3"/>
+      <c r="AI5" s="3"/>
+    </row>
+    <row r="6" spans="1:35" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="21"/>
       <c r="B6" s="21"/>
       <c r="C6" s="21"/>
@@ -1130,10 +1150,12 @@
       <c r="AC6" s="3"/>
       <c r="AD6" s="3"/>
       <c r="AE6" s="3"/>
-      <c r="AF6" s="20"/>
-      <c r="AG6" s="20"/>
-    </row>
-    <row r="7" spans="1:33" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AF6" s="3"/>
+      <c r="AG6" s="3"/>
+      <c r="AH6" s="20"/>
+      <c r="AI6" s="20"/>
+    </row>
+    <row r="7" spans="1:35" s="6" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="21"/>
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
@@ -1167,8 +1189,10 @@
       <c r="AE7" s="20"/>
       <c r="AF7" s="20"/>
       <c r="AG7" s="20"/>
-    </row>
-    <row r="8" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH7" s="20"/>
+      <c r="AI7" s="20"/>
+    </row>
+    <row r="8" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21"/>
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
@@ -1202,8 +1226,10 @@
       <c r="AE8" s="20"/>
       <c r="AF8" s="20"/>
       <c r="AG8" s="20"/>
-    </row>
-    <row r="9" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+    </row>
+    <row r="9" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="21"/>
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
@@ -1237,8 +1263,10 @@
       <c r="AE9" s="20"/>
       <c r="AF9" s="20"/>
       <c r="AG9" s="20"/>
-    </row>
-    <row r="10" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH9" s="20"/>
+      <c r="AI9" s="20"/>
+    </row>
+    <row r="10" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="21"/>
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
@@ -1272,8 +1300,10 @@
       <c r="AE10" s="20"/>
       <c r="AF10" s="20"/>
       <c r="AG10" s="20"/>
-    </row>
-    <row r="11" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH10" s="20"/>
+      <c r="AI10" s="20"/>
+    </row>
+    <row r="11" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="21"/>
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
@@ -1307,8 +1337,10 @@
       <c r="AE11" s="20"/>
       <c r="AF11" s="20"/>
       <c r="AG11" s="20"/>
-    </row>
-    <row r="12" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH11" s="20"/>
+      <c r="AI11" s="20"/>
+    </row>
+    <row r="12" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="21"/>
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
@@ -1342,8 +1374,10 @@
       <c r="AE12" s="20"/>
       <c r="AF12" s="20"/>
       <c r="AG12" s="20"/>
-    </row>
-    <row r="13" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH12" s="20"/>
+      <c r="AI12" s="20"/>
+    </row>
+    <row r="13" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="21"/>
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
@@ -1377,8 +1411,10 @@
       <c r="AE13" s="20"/>
       <c r="AF13" s="20"/>
       <c r="AG13" s="20"/>
-    </row>
-    <row r="14" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH13" s="20"/>
+      <c r="AI13" s="20"/>
+    </row>
+    <row r="14" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="21"/>
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
@@ -1412,8 +1448,10 @@
       <c r="AE14" s="20"/>
       <c r="AF14" s="20"/>
       <c r="AG14" s="20"/>
-    </row>
-    <row r="15" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH14" s="20"/>
+      <c r="AI14" s="20"/>
+    </row>
+    <row r="15" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="21"/>
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
@@ -1447,8 +1485,10 @@
       <c r="AE15" s="20"/>
       <c r="AF15" s="20"/>
       <c r="AG15" s="20"/>
-    </row>
-    <row r="16" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH15" s="20"/>
+      <c r="AI15" s="20"/>
+    </row>
+    <row r="16" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="21"/>
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
@@ -1482,8 +1522,10 @@
       <c r="AE16" s="20"/>
       <c r="AF16" s="20"/>
       <c r="AG16" s="20"/>
-    </row>
-    <row r="17" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH16" s="20"/>
+      <c r="AI16" s="20"/>
+    </row>
+    <row r="17" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="21"/>
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
@@ -1517,8 +1559,10 @@
       <c r="AE17" s="20"/>
       <c r="AF17" s="20"/>
       <c r="AG17" s="20"/>
-    </row>
-    <row r="18" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH17" s="20"/>
+      <c r="AI17" s="20"/>
+    </row>
+    <row r="18" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="21"/>
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
@@ -1552,8 +1596,10 @@
       <c r="AE18" s="20"/>
       <c r="AF18" s="20"/>
       <c r="AG18" s="20"/>
-    </row>
-    <row r="19" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH18" s="20"/>
+      <c r="AI18" s="20"/>
+    </row>
+    <row r="19" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="21"/>
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
@@ -1587,8 +1633,10 @@
       <c r="AE19" s="20"/>
       <c r="AF19" s="20"/>
       <c r="AG19" s="20"/>
-    </row>
-    <row r="20" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH19" s="20"/>
+      <c r="AI19" s="20"/>
+    </row>
+    <row r="20" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="21"/>
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
@@ -1622,8 +1670,10 @@
       <c r="AE20" s="20"/>
       <c r="AF20" s="20"/>
       <c r="AG20" s="20"/>
-    </row>
-    <row r="21" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH20" s="20"/>
+      <c r="AI20" s="20"/>
+    </row>
+    <row r="21" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="21"/>
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
@@ -1657,8 +1707,10 @@
       <c r="AE21" s="20"/>
       <c r="AF21" s="20"/>
       <c r="AG21" s="20"/>
-    </row>
-    <row r="22" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH21" s="20"/>
+      <c r="AI21" s="20"/>
+    </row>
+    <row r="22" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="21"/>
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
@@ -1692,8 +1744,10 @@
       <c r="AE22" s="20"/>
       <c r="AF22" s="20"/>
       <c r="AG22" s="20"/>
-    </row>
-    <row r="23" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH22" s="20"/>
+      <c r="AI22" s="20"/>
+    </row>
+    <row r="23" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="21"/>
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
@@ -1727,8 +1781,10 @@
       <c r="AE23" s="20"/>
       <c r="AF23" s="20"/>
       <c r="AG23" s="20"/>
-    </row>
-    <row r="24" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH23" s="20"/>
+      <c r="AI23" s="20"/>
+    </row>
+    <row r="24" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21"/>
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
@@ -1762,8 +1818,10 @@
       <c r="AE24" s="20"/>
       <c r="AF24" s="20"/>
       <c r="AG24" s="20"/>
-    </row>
-    <row r="25" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH24" s="20"/>
+      <c r="AI24" s="20"/>
+    </row>
+    <row r="25" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="21"/>
       <c r="B25" s="21"/>
       <c r="C25" s="21"/>
@@ -1797,8 +1855,10 @@
       <c r="AE25" s="20"/>
       <c r="AF25" s="20"/>
       <c r="AG25" s="20"/>
-    </row>
-    <row r="26" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH25" s="20"/>
+      <c r="AI25" s="20"/>
+    </row>
+    <row r="26" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="21"/>
       <c r="B26" s="21"/>
       <c r="C26" s="21"/>
@@ -1832,8 +1892,10 @@
       <c r="AE26" s="20"/>
       <c r="AF26" s="20"/>
       <c r="AG26" s="20"/>
-    </row>
-    <row r="27" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH26" s="20"/>
+      <c r="AI26" s="20"/>
+    </row>
+    <row r="27" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="21"/>
       <c r="B27" s="21"/>
       <c r="C27" s="21"/>
@@ -1867,8 +1929,10 @@
       <c r="AE27" s="20"/>
       <c r="AF27" s="20"/>
       <c r="AG27" s="20"/>
-    </row>
-    <row r="28" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH27" s="20"/>
+      <c r="AI27" s="20"/>
+    </row>
+    <row r="28" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="21"/>
       <c r="B28" s="21"/>
       <c r="C28" s="21"/>
@@ -1902,8 +1966,10 @@
       <c r="AE28" s="20"/>
       <c r="AF28" s="20"/>
       <c r="AG28" s="20"/>
-    </row>
-    <row r="29" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH28" s="20"/>
+      <c r="AI28" s="20"/>
+    </row>
+    <row r="29" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="21"/>
       <c r="B29" s="21"/>
       <c r="C29" s="21"/>
@@ -1937,8 +2003,10 @@
       <c r="AE29" s="20"/>
       <c r="AF29" s="20"/>
       <c r="AG29" s="20"/>
-    </row>
-    <row r="30" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH29" s="20"/>
+      <c r="AI29" s="20"/>
+    </row>
+    <row r="30" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="21"/>
       <c r="B30" s="21"/>
       <c r="C30" s="21"/>
@@ -1972,8 +2040,10 @@
       <c r="AE30" s="20"/>
       <c r="AF30" s="20"/>
       <c r="AG30" s="20"/>
-    </row>
-    <row r="31" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH30" s="20"/>
+      <c r="AI30" s="20"/>
+    </row>
+    <row r="31" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="21"/>
       <c r="B31" s="21"/>
       <c r="C31" s="21"/>
@@ -2007,8 +2077,10 @@
       <c r="AE31" s="20"/>
       <c r="AF31" s="20"/>
       <c r="AG31" s="20"/>
-    </row>
-    <row r="32" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH31" s="20"/>
+      <c r="AI31" s="20"/>
+    </row>
+    <row r="32" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="21"/>
       <c r="B32" s="21"/>
       <c r="C32" s="21"/>
@@ -2042,8 +2114,10 @@
       <c r="AE32" s="20"/>
       <c r="AF32" s="20"/>
       <c r="AG32" s="20"/>
-    </row>
-    <row r="33" spans="1:33" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="AH32" s="20"/>
+      <c r="AI32" s="20"/>
+    </row>
+    <row r="33" spans="1:35" s="6" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="21"/>
       <c r="B33" s="21"/>
       <c r="C33" s="21"/>
@@ -2077,6 +2151,8 @@
       <c r="AE33" s="20"/>
       <c r="AF33" s="20"/>
       <c r="AG33" s="20"/>
+      <c r="AH33" s="20"/>
+      <c r="AI33" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
